--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156348.9269221475</v>
+        <v>170075.2850595657</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="C4" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="D4" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="E4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="F4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="G4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="H4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="I4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="J4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="K4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="L4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="M4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="N4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="O4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
       <c r="P4" t="n">
-        <v>50967.55200287979</v>
+        <v>50967.5520028798</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028307</v>
+        <v>-17501.48917028306</v>
       </c>
       <c r="C6" t="n">
         <v>-17501.48917028306</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028307</v>
+        <v>-17501.48917028306</v>
       </c>
       <c r="E6" t="n">
-        <v>-79074.6433655177</v>
+        <v>-79074.64336551774</v>
       </c>
       <c r="F6" t="n">
-        <v>54025.35663448231</v>
+        <v>54025.3566344823</v>
       </c>
       <c r="G6" t="n">
-        <v>54025.35663448231</v>
+        <v>54025.3566344823</v>
       </c>
       <c r="H6" t="n">
-        <v>54025.35663448231</v>
+        <v>54025.3566344823</v>
       </c>
       <c r="I6" t="n">
-        <v>54025.35663448228</v>
+        <v>54025.3566344823</v>
       </c>
       <c r="J6" t="n">
-        <v>54025.35663448231</v>
+        <v>54025.3566344823</v>
       </c>
       <c r="K6" t="n">
-        <v>54025.35663448231</v>
+        <v>54025.3566344823</v>
       </c>
       <c r="L6" t="n">
-        <v>54025.35663448231</v>
+        <v>54025.3566344823</v>
       </c>
       <c r="M6" t="n">
-        <v>54025.35663448231</v>
+        <v>54025.3566344823</v>
       </c>
       <c r="N6" t="n">
-        <v>54025.35663448231</v>
+        <v>54025.3566344823</v>
       </c>
       <c r="O6" t="n">
-        <v>54025.35663448231</v>
+        <v>54025.3566344823</v>
       </c>
       <c r="P6" t="n">
-        <v>54025.35663448231</v>
+        <v>54025.3566344823</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_16_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170075.2850595657</v>
+        <v>44965.38626208891</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028306</v>
+        <v>-32652.16314031782</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028306</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028306</v>
+        <v>-32652.16314031782</v>
       </c>
       <c r="E6" t="n">
-        <v>-79074.64336551774</v>
+        <v>-93884.66020463167</v>
       </c>
       <c r="F6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
       <c r="G6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
       <c r="H6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
       <c r="I6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
       <c r="J6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
       <c r="K6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
       <c r="L6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
       <c r="M6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
       <c r="N6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
       <c r="O6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
       <c r="P6" t="n">
-        <v>54025.3566344823</v>
+        <v>39215.33979536839</v>
       </c>
     </row>
   </sheetData>
